--- a/TernerosGuachera.xlsx
+++ b/TernerosGuachera.xlsx
@@ -38,6 +38,9 @@
     <t xml:space="preserve">Sexo</t>
   </si>
   <si>
+    <t xml:space="preserve">Tipo de parto</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nacimiento</t>
   </si>
   <si>
@@ -53,40 +56,37 @@
     <t xml:space="preserve">Cuando fue</t>
   </si>
   <si>
-    <t xml:space="preserve">A004</t>
+    <t xml:space="preserve">a200</t>
   </si>
   <si>
     <t xml:space="preserve">Macho</t>
   </si>
   <si>
+    <t xml:space="preserve">1-Normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">a201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-Cesárea</t>
+  </si>
+  <si>
     <t xml:space="preserve">35</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5</t>
+    <t xml:space="preserve">7</t>
   </si>
   <si>
     <t xml:space="preserve">Neumonia leve</t>
   </si>
   <si>
-    <t xml:space="preserve">A005</t>
+    <t xml:space="preserve">b1</t>
   </si>
   <si>
     <t xml:space="preserve">Hembra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diarrea Leve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
   </si>
 </sst>
 </file>
@@ -104,6 +104,7 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
     <font/>
     <font/>
     <font/>
@@ -178,6 +179,11 @@
         <fgColor rgb="FFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
     <fill/>
     <fill/>
     <fill/>
@@ -209,6 +215,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -641,30 +662,31 @@
     <xf fontId="5" fillId="6" borderId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="6" fillId="7" borderId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="7" fillId="8" borderId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="8" fillId="9" borderId="8" applyFont="1" applyFill="1" applyBorder="1" numFmtId="164"/>
+    <xf fontId="8" fillId="9" borderId="8" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="9" fillId="10" borderId="9" applyFont="1" applyFill="1" applyBorder="1" numFmtId="164"/>
-    <xf fontId="10" fillId="11" borderId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="10" fillId="11" borderId="10" applyFont="1" applyFill="1" applyBorder="1" numFmtId="164"/>
     <xf fontId="11" fillId="12" borderId="11" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="12" fillId="13" borderId="12" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="13" fillId="14" borderId="13" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="14" fillId="15" borderId="14" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="15" fillId="16" borderId="15" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="16" fillId="17" borderId="16" applyFont="1" applyFill="1" applyBorder="1" numFmtId="164"/>
+    <xf fontId="16" fillId="17" borderId="16" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="17" fillId="18" borderId="17" applyFont="1" applyFill="1" applyBorder="1" numFmtId="164"/>
-    <xf fontId="18" fillId="19" borderId="18" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="18" fillId="19" borderId="18" applyFont="1" applyFill="1" applyBorder="1" numFmtId="164"/>
     <xf fontId="19" fillId="20" borderId="19" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="20" fillId="21" borderId="20" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="21" fillId="22" borderId="21" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="22" fillId="23" borderId="22" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="23" fillId="24" borderId="23" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="24" fillId="25" borderId="24" applyFont="1" applyFill="1" applyBorder="1" numFmtId="164"/>
+    <xf fontId="24" fillId="25" borderId="24" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="25" fillId="26" borderId="25" applyFont="1" applyFill="1" applyBorder="1" numFmtId="164"/>
-    <xf fontId="26" fillId="27" borderId="26" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="26" fillId="27" borderId="26" applyFont="1" applyFill="1" applyBorder="1" numFmtId="164"/>
     <xf fontId="27" fillId="28" borderId="27" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="28" fillId="29" borderId="28" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="29" fillId="30" borderId="29" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="30" fillId="31" borderId="30" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="31" fillId="32" borderId="31" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="32" fillId="33" borderId="32" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -955,11 +977,12 @@
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -995,78 +1018,83 @@
       <c r="H4" t="s" s="7">
         <v>8</v>
       </c>
+      <c r="I4" t="s" s="8">
+        <v>9</v>
+      </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s" s="11">
+      <c r="B5" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="D5" s="8">
-        <v>45691</v>
-      </c>
-      <c r="E5" t="s" s="12">
+      <c r="C5" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="F5" t="s" s="13">
+      <c r="D5" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="G5" t="s" s="14">
+      <c r="E5" s="9">
+        <v>45721</v>
+      </c>
+      <c r="F5" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="H5" s="9">
-        <v>45715</v>
-      </c>
-      <c r="I5" s="15"/>
+      <c r="G5" t="s" s="15">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s" s="16">
+        <v>13</v>
+      </c>
+      <c r="I5" s="10"/>
     </row>
     <row r="6">
-      <c r="B6" t="s" s="18">
+      <c r="B6" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="C6" t="s" s="19">
+      <c r="C6" t="s" s="20">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s" s="21">
         <v>15</v>
       </c>
-      <c r="D6" s="16">
-        <v>45689</v>
-      </c>
-      <c r="E6" t="s" s="20">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s" s="21">
+      <c r="E6" s="17">
+        <v>45721</v>
+      </c>
+      <c r="F6" t="s" s="22">
         <v>16</v>
       </c>
-      <c r="G6" t="s" s="22">
+      <c r="G6" t="s" s="23">
         <v>17</v>
       </c>
-      <c r="H6" s="17">
-        <v>45716</v>
-      </c>
-      <c r="I6" s="23"/>
+      <c r="H6" t="s" s="24">
+        <v>18</v>
+      </c>
+      <c r="I6" s="18">
+        <v>45727</v>
+      </c>
     </row>
     <row r="7">
-      <c r="B7" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s" s="27">
-        <v>15</v>
-      </c>
-      <c r="D7" s="24">
-        <v>45673</v>
-      </c>
-      <c r="E7" t="s" s="28">
+      <c r="B7" t="s" s="27">
         <v>19</v>
       </c>
-      <c r="F7" t="s" s="29">
+      <c r="C7" t="s" s="28">
         <v>20</v>
       </c>
-      <c r="G7" t="s" s="30">
+      <c r="D7" t="s" s="29">
+        <v>12</v>
+      </c>
+      <c r="E7" s="25">
+        <v>45720</v>
+      </c>
+      <c r="F7" t="s" s="30">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s" s="31">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s" s="32">
         <v>13</v>
       </c>
-      <c r="H7" s="25">
-        <v>45713</v>
-      </c>
-      <c r="I7" s="31"/>
+      <c r="I7" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
